--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_4_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_4_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.795634272222758e-16</v>
+        <v>5.657187386625001e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.23534126540681</v>
+        <v>42.48955603030929</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.40259909124997, 59.06808343956365]</t>
+          <t>[33.003721140087954, 51.97539092053062]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.8553950606786564]</t>
+          <t>[1.2264475824825025, 1.7044476659115775]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.83921659787308</v>
+        <v>61.85006149620168</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.098790744596904, 69.57964245114925]</t>
+          <t>[55.992722676356735, 67.70740031604663]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.0996596596598</v>
+        <v>17.78132132132147</v>
       </c>
       <c r="X2" t="n">
-        <v>16.35619619619633</v>
+        <v>16.89921921921936</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.84312312312327</v>
+        <v>18.66342342342357</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.59000000000009</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.550315845288424e-15</v>
+        <v>1.641575764210756e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98422838443645e-14</v>
+        <v>4.989947848860703e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.77811619101818</v>
+        <v>43.41263578142147</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.21904000457491, 61.33719237746145]</t>
+          <t>[29.122207634705696, 57.70306392813725]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.310330284506563e-13</v>
+        <v>1.025800910881003e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>9.310330284506563e-13</v>
+        <v>1.025800910881003e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1698158191129622</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 0.47171060864711656]</t>
+          <t>[0.6226580034141929, 1.3019212798660398]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.2685878128733508</v>
+        <v>7.886965924797096e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2685878128733508</v>
+        <v>7.886965924797096e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>60.60938149454312</v>
+        <v>59.61818441733162</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.82905518960614, 68.3897077994801]</t>
+          <t>[51.96761067777891, 67.26875815688433]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.97945945945955</v>
+        <v>19.30810810810821</v>
       </c>
       <c r="X3" t="n">
-        <v>20.89405405405414</v>
+        <v>18.07567567567578</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.06486486486496</v>
+        <v>20.54054054054065</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_4_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_4_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.657187386625001e-16</v>
+        <v>4.11193712824132e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.48955603030929</v>
+        <v>49.06482098573998</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.003721140087954, 51.97539092053062]</t>
+          <t>[40.74576113765458, 57.38388083382537]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.7044476659115775]</t>
+          <t>[1.42771077550527, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.85006149620168</v>
+        <v>64.65240456612217</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.992722676356735, 67.70740031604663]</t>
+          <t>[58.92306309510942, 70.38174603713492]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.78132132132147</v>
+        <v>17.28362362362378</v>
       </c>
       <c r="X2" t="n">
-        <v>16.89921921921936</v>
+        <v>16.58482482482497</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.66342342342357</v>
+        <v>17.98242242242258</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.80000000000013</v>
+        <v>22.10000000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.641575764210756e-12</v>
+        <v>3.085076638598139e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>4.989947848860703e-12</v>
+        <v>8.347445541807319e-11</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.41263578142147</v>
+        <v>39.47395257329012</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[29.122207634705696, 57.70306392813725]</t>
+          <t>[25.361098378273, 53.58680676830724]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.025800910881003e-08</v>
+        <v>1.121836572526291e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.025800910881003e-08</v>
+        <v>1.121836572526291e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9622896416401163</v>
+        <v>-0.8931054190385392</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.3019212798660398]</t>
+          <t>[-1.2578949563923087, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.886965924797096e-08</v>
+        <v>2.819840424050923e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>7.886965924797096e-08</v>
+        <v>2.819840424050923e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>59.61818441733162</v>
+        <v>60.50452219481195</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.96761067777891, 67.26875815688433]</t>
+          <t>[53.079280493222825, 67.92976389640108]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.30810810810821</v>
+        <v>3.141341341341342</v>
       </c>
       <c r="X3" t="n">
-        <v>18.07567567567578</v>
+        <v>1.858258258258259</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.54054054054065</v>
+        <v>4.424424424424425</v>
       </c>
     </row>
   </sheetData>
